--- a/src/main/resources/ScenarioResults.xlsx
+++ b/src/main/resources/ScenarioResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="52">
   <si>
     <t>login-functionality;login-with-valid-username-and-password</t>
   </si>
@@ -156,6 +156,18 @@
   </si>
   <si>
     <t>2020-12-23 22 09 35</t>
+  </si>
+  <si>
+    <t>2020-12-23 22 31 54</t>
+  </si>
+  <si>
+    <t>2020-12-23 22 32 13</t>
+  </si>
+  <si>
+    <t>2020-12-23 22 34 11</t>
+  </si>
+  <si>
+    <t>2020-12-23 22 35 18</t>
   </si>
 </sst>
 </file>
@@ -200,7 +212,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -738,6 +750,62 @@
         <v>3</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/resources/ScenarioResults.xlsx
+++ b/src/main/resources/ScenarioResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="55">
   <si>
     <t>login-functionality;login-with-valid-username-and-password</t>
   </si>
@@ -168,6 +168,15 @@
   </si>
   <si>
     <t>2020-12-23 22 35 18</t>
+  </si>
+  <si>
+    <t>2020-12-24 00 19 26</t>
+  </si>
+  <si>
+    <t>2020-12-24 00 19 44</t>
+  </si>
+  <si>
+    <t>2020-12-24 00 20 37</t>
   </si>
 </sst>
 </file>
@@ -212,7 +221,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -806,6 +815,48 @@
         <v>3</v>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/resources/ScenarioResults.xlsx
+++ b/src/main/resources/ScenarioResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="58">
   <si>
     <t>login-functionality;login-with-valid-username-and-password</t>
   </si>
@@ -177,6 +177,15 @@
   </si>
   <si>
     <t>2020-12-24 00 20 37</t>
+  </si>
+  <si>
+    <t>2020-12-24 00 25 41</t>
+  </si>
+  <si>
+    <t>2020-12-24 00 25 59</t>
+  </si>
+  <si>
+    <t>2020-12-24 00 26 30</t>
   </si>
 </sst>
 </file>
@@ -221,7 +230,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -857,6 +866,48 @@
         <v>3</v>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/resources/ScenarioResults.xlsx
+++ b/src/main/resources/ScenarioResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="61">
   <si>
     <t>login-functionality;login-with-valid-username-and-password</t>
   </si>
@@ -186,6 +186,15 @@
   </si>
   <si>
     <t>2020-12-24 00 26 30</t>
+  </si>
+  <si>
+    <t>2020-12-24 01 02 58</t>
+  </si>
+  <si>
+    <t>country-creat-edit-delete-functionality;create-a-country</t>
+  </si>
+  <si>
+    <t>2020-12-24 01 03 18</t>
   </si>
 </sst>
 </file>
@@ -230,7 +239,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -908,6 +917,34 @@
         <v>3</v>
       </c>
     </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
